--- a/balance_table.xlsx
+++ b/balance_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,138 +436,198 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Treated Mean</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Control Mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SMD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MA03</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>85.70117069015028</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>85.73579387560862</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-0.003470656656470886</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RD03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>85.30059996117241</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>85.51441559799518</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-0.01967690245172873</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eds_Y</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.1986089316764918</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1784214767377751</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.05163018065664748</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>sex_M</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.5108359133126935</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.5163917044828025</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.01111563934589087</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_A</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.03418295941303703</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.02854234700368972</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.03236584196022121</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_B</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.08422749056363714</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.07710250646761949</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.02616570210149202</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_H</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.08715382331735867</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.07561813478094916</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.04219778252041203</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_I</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.00852453454344968</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.006955341617541033</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.01790618384918831</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_M</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.03498876118580092</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.02536155053225328</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.05629785523629816</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_P</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.0005513380550489843</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.03321502072548699</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_W</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.7503710929216676</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.7864201195979473</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-0.08552937081524437</v>
       </c>
     </row>
